--- a/planilhas/Maio 2024.xlsx
+++ b/planilhas/Maio 2024.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet name="Soma" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Dia 20" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Dia 21" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1496,7 +1497,7 @@
         </is>
       </c>
       <c r="B22" s="11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C22" s="11" t="n">
         <v>0</v>
@@ -1506,14 +1507,14 @@
       </c>
       <c r="E22" s="8" t="n"/>
       <c r="F22" s="11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="8" t="n"/>
       <c r="H22" s="12" t="n">
         <v>0</v>
       </c>
       <c r="I22" s="11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="8" t="n"/>
       <c r="K22" s="13" t="n"/>
@@ -1987,7 +1988,7 @@
         </is>
       </c>
       <c r="I33" s="14" t="n">
-        <v>24660</v>
+        <v>24760</v>
       </c>
       <c r="J33" s="8" t="n"/>
       <c r="K33" s="13" t="n"/>
@@ -2834,4 +2835,50 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Dinheiro</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Débito</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Crédito</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Parcelas</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>